--- a/output/ml2-ft.xlsx
+++ b/output/ml2-ft.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Machine Learning Foundations: In this unit, students will learn to distinguish when ML is appropriate, match real-world problems to ML task types, define features and labels as signals, describe models as functions within the end-to-end ML workflow, avoid common pitfalls like overfitting and data leakage, and apply core data-preprocessing steps including loading tabular data, train/test splitting, handling missing values, encoding categories, and scaling features.</t>
+          <t>Core ML Concepts: In this unit, you’ll frame real problems as machine learning tasks, define features and labels, distinguish ML from rule-based systems, walk through the end-to-end ML workflow from data to prediction, and prepare tabular data (splits, cleaning, encoding, scaling) while avoiding common pitfalls like overfitting and data leakage.</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -510,12 +510,12 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>Build an intuitive understanding of what machine learning is (and isn’t), how to choose appropriate ML task types, and how data, labels, and features act as signals in simple real-world problems. By the end of the chapter, you’ll be able to decide when to use ML vs rule-based logic, map business questions to ML tasks, and clearly specify features and labels for supervised and unsupervised learning scenarios.</t>
+          <t>Learn how to recognize when machine learning is appropriate, choose the right task type, and define data as features and labels so you can clearly scope simple ML projects.</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>Foundations of Machine Learning Thinking</t>
+          <t>Framing Machine Learning Problems</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t>Theory Practice Lesson: ML or Traditional Logic?</t>
+          <t>Theory Practice Lesson: ML vs Rules in a Smart Home</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>You will distinguish when a problem is better solved with traditional rule-based programming versus machine learning. Output: A completed worksheet or quiz where each scenario is labeled as “ML” or “Rule-based” with a short justification.</t>
+          <t>Practice distinguishing where rule-based logic ends and machine learning begins in a smart home scenario. Output: Completed worksheet or notes classifying each smart home behavior as rule-based or ML-based with short justifications.</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t>Theory Practice Lesson: Matching Problems to ML Task Types</t>
+          <t>Theory Practice Lesson: Task Type Match-Up</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>You will correctly match real-world problems to classification, regression, or clustering and to supervised vs unsupervised learning. Output: A filled-in matching table where each scenario is assigned an ML task type and learning type.</t>
+          <t>Strengthen your ability to match real-world problems to classification, regression, or clustering and to supervised vs unsupervised learning. Output: Filled-in table or quiz sheet where each scenario is labeled with the correct ML task type and learning type.</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Movie Genre Classifier</t>
+          <t>Theory Practice Lesson: Features and Labels in a Music App</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>You will identify features, labels, and ML task type from a small “movie recommendation” story. Output: A simple text-based description listing input features, the target label, and whether this is classification, regression, or clustering.</t>
+          <t>Identify input features and target labels in a music recommendation app and separate labeled from unlabeled data. Output: A feature–label mapping list that clearly marks which columns are features, which are labels, and which are unlabeled in the given scenario.</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Cafe Sales Forecast</t>
+          <t>Practice Lesson: Movie Rating Signals</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>You will practice mapping a business question (predicting cafe sales) into features, target, and ML task type. Output: A short written “problem specification” that defines the ML task, features, label, and whether it’s supervised or unsupervised.</t>
+          <t>Practice turning raw user behavior into features and labels for a movie rating prediction problem. Output: A small, hand-crafted “dataset” table where each row has clearly defined features (signals) and an appropriate label for a rating/like prediction task.</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="G11" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Features as Signals in a Music App</t>
+          <t>Practice Lesson: ML Problem Scoping</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>You will distinguish raw vs derived features and explain how each could act as a signal for a music recommendation problem. Output: A table or bullet list categorizing features as raw/derived with a one-line explanation of why each might help a model.</t>
+          <t>Practice scoping a realistic ML problem by defining the task type, features, labels, and what success looks like. Output: A short written problem brief for an ML project (e.g., churn prediction) that clearly states task type, example features, label, and evaluation idea.</t>
         </is>
       </c>
     </row>
@@ -767,12 +767,12 @@
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>In this chapter, students will learn to describe models as functions, distinguish clearly between training and prediction, and use core ML vocabulary to explain an end-to-end workflow. They will practice applying these ideas through simple use cases (pricing, spam filtering, forecasting) and compare rule-based systems to learned models that generalize from data.</t>
+          <t>Learn how models are trained, how they make predictions, and how to describe them as functions that map inputs to outputs. Understand and apply the end-to-end ML workflow—from data preparation through training, evaluation, and real-world prediction—using concrete examples like spam filters and ride price predictors.</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>From Rules to Machine Learning</t>
+          <t>How Machine Learning Systems Work</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -880,7 +880,7 @@
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>You will sequence and label the steps where a model learns versus where it uses learned knowledge. Output: A completed timeline or flow diagram that clearly marks “training” and “prediction” phases for a simple ML use case.</t>
+          <t>Clarify when a model is learning and when it is just using learned knowledge in a step-by-step story. Output: A labeled timeline or flow diagram that separates training-time activities from prediction-time activities in a concrete scenario.</t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       </c>
       <c r="G18" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: House Price Function</t>
+          <t>Theory Practice Lesson: Models as Functions Quiz</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>You will represent a simple model as a function that maps house features to a price and contrast it with fixed rules. Output: A short pseudo-code or simple Python-like function that takes a few numeric inputs and returns a predicted price.</t>
+          <t>Reinforce the idea of a model as a function mapping inputs to outputs and contrast it with simple if/else rules. Output: Completed quiz or matching exercise where each example is identified as a rule-based system or an ML “function” and explained briefly.</t>
         </is>
       </c>
     </row>
@@ -914,7 +914,7 @@
       </c>
       <c r="G19" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Email Spam Filter Function</t>
+          <t>Practice Lesson: Email Spam Function</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>You will describe an ML spam filter as a function and identify inputs, outputs, and decision boundary intuition. Output: A text description or pseudo-code function that takes email attributes as input and outputs “spam” or “not spam” with a brief explanation of the decision boundary.</t>
+          <t>Conceptually design an “email spam classifier” as a function by specifying inputs, outputs, and example decision behavior. Output: A pseudo-code or structured description of a function that takes email properties as inputs and outputs “spam” or “not spam”.</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="G20" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: ML Workflow for a Taxi Fare App</t>
+          <t>Theory Practice Lesson: ML Workflow Card Sort</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>You will outline the end-to-end ML workflow for predicting taxi fares from raw trip data. Output: A step-by-step workflow document labeling data collection, cleaning, feature selection, training, evaluation, and prediction.</t>
+          <t>Practice ordering and naming the key steps of an ML workflow from raw data to prediction. Output: An ordered list or diagram where each workflow card (data collection, cleaning, splitting, training, evaluation, prediction) is placed in the correct sequence with a one-line description.</t>
         </is>
       </c>
     </row>
@@ -958,7 +958,7 @@
       </c>
       <c r="G21" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Weather Prediction Workflow Cards</t>
+          <t>Practice Lesson: Workflow for a Ride Price Predictor</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>You will correctly order shuffled workflow “cards” to build a coherent ML pipeline for predicting tomorrow’s temperature. Output: An ordered list of steps (with your chosen numbering) that shows the correct ML workflow sequence.</t>
+          <t>Apply ML workflow vocabulary by designing the end-to-end workflow for a ride price prediction system. Output: A written workflow outline with bullet points for each step (data, features, training, evaluation, deployment/prediction) tailored to the ride price example.</t>
         </is>
       </c>
     </row>
@@ -980,7 +980,7 @@
       </c>
       <c r="G22" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Rule-Based vs Learned Model Comparison</t>
+          <t>Practice Lesson: Decision Boundary Sketch</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>You will compare a simple rule-based decision system with a learned model for a loan approval scenario and explain how the model generalizes. Output: A short comparison table or paragraph explaining differences in behavior between the rule system and the learned model on several example applicants.</t>
+          <t>Build intuition about learned decision boundaries by sketching how a model might separate two classes in a simple 2D feature space. Output: A hand-drawn or digital plot with sample points and a rough boundary line or region showing how a model might classify new points.</t>
         </is>
       </c>
     </row>
@@ -1024,12 +1024,12 @@
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>Learn to load and explore tabular datasets, perform trustworthy train/test splits, and recognize common ML pitfalls such as overfitting, data leakage, and unrealistic evaluations so you can interpret model performance with confidence.</t>
+          <t>Learn to load and inspect tabular data, avoid common ML pitfalls like overfitting and data leakage, and perform reliable train/test splits so your model evaluations are realistic and trustworthy.</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>Building Reliable ML Foundations</t>
+          <t>Trustworthy ML with Tables</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="G28" s="4" t="inlineStr">
         <is>
-          <t>Theory Practice Lesson: Spotting ML Pitfalls in a Story</t>
+          <t>Theory Practice Lesson: Spot the Pitfall</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>You will identify overfitting, data leakage, and unrealistic evaluation practices in a narrative case study. Output: A marked-up story or bullet list where each pitfall is named, underlined (or noted), and briefly explained.</t>
+          <t>Strengthen your ability to recognize overfitting, data leakage, and unrealistic performance expectations from short case descriptions. Output: A set of annotated case summaries where each is labeled with the main pitfall (or “no pitfall”) and a brief explanation.</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="G29" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Loading Cafe Sales Data</t>
+          <t>Practice Lesson: Cafe Orders Table Inspection</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>You will load a small tabular dataset with pandas, inspect its structure, and identify features and target. Output: A short script that reads a CSV, prints head(), info(), and lists which columns are features vs the target.</t>
+          <t>Practice loading and inspecting a small tabular dataset, identifying columns, data types, features, and target. Output: A short report (or notebook cells) showing dataset head, info/summary, and a clear list of which columns are features and which is the target.</t>
         </is>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="G30" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Music Streams Dataset Exploration</t>
+          <t>Practice Lesson: Housing Data Overview</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>You will practice loading a music streaming dataset and exploring rows, columns, and data types to prepare for modeling. Output: A script that loads the dataset, prints basic statistics, and outputs a summary of numeric vs categorical columns.</t>
+          <t>Reinforce basic pandas operations by loading a housing-style dataset and exploring its structure and basic statistics. Output: Notebook cells or script output with dataset loading, head(), describe(), info(), and a short written summary of key observations.</t>
         </is>
       </c>
     </row>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="G31" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Train / Test Split for House Prices</t>
+          <t>Practice Lesson: Train Test Split for Customer Churn</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t>You will perform a train/test split using scikit-learn and explain why the split improves trust in evaluation. Output: A script that loads a toy house-price dataset, splits it into train and test sets, and prints the shapes of each subset.</t>
+          <t>Apply a proper train/test split to a churn dataset and explain how the split supports trustworthy evaluation. Output: Code or pseudo-code that performs a train/test split and prints the shapes of the resulting sets with a short justification of the chosen split ratio.</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="G32" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Train / Test Split for Customer Churn</t>
+          <t>Practice Lesson: Evaluating Split Scenarios</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t>You will apply train/test splitting to a customer churn dataset and verify that the target distribution is similar across splits. Output: A script that splits the data and prints value_counts() of the target in train and test sets for comparison.</t>
+          <t>Build intuition about how different train/test splits affect evaluation reliability and data leakage risk. Output: A comparison table or notes describing multiple split scenarios (e.g., 50/50, 80/20, temporal split) with pros and cons for each.</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="G33" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Evaluating Overfitting Intuitively</t>
+          <t>Practice Lesson: Overfitting Intuition with Curves</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="I33" s="3" t="inlineStr">
         <is>
-          <t>You will simulate overfitting by comparing performance on training vs test data and interpret what the gap means. Output: A script that trains a simple model on tabular data, prints accuracy (or error) on both train and test sets, and outputs a short text interpretation of the results.</t>
+          <t>Develop an intuitive feel for overfitting by comparing model behavior on “training-like” vs “new” points in a conceptual curve-fitting example. Output: A sketch or conceptual diagram contrasting a simple underfit, a good fit, and an overfit curve with labeled training and test regions.</t>
         </is>
       </c>
     </row>
@@ -1281,12 +1281,12 @@
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>Learn to clean, encode, and scale real-world datasets so they are ready for machine learning models. You will practice handling missing values, transforming categorical variables into numeric form, scaling numeric features, and combining these steps in a reproducible preprocessing pipeline.</t>
+          <t>Learn how to clean and transform tabular data for machine learning by handling missing values, encoding categorical features, and scaling numeric features, and build intuition for how these choices affect different model types.</t>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>Preparing Data for Machine Learning</t>
+          <t>Preparing Features for Models</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="G39" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Handling Missing Values in Housing Data</t>
+          <t>Practice Lesson: Missing Data in Patient Records</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="I39" s="3" t="inlineStr">
         <is>
-          <t>You will detect missing values in a housing dataset and apply simple imputation strategies such as mean and median. Output: A script that prints missing-value counts per column, applies imputation, and shows the cleaned dataset’s summary.</t>
+          <t>Practice identifying missing values and choosing simple imputation strategies in a medical records-style table. Output: A marked-up table or notebook cells showing where data is missing, what imputation strategy is chosen for each column, and the resulting filled-in values.</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="G40" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Cafe Customer Records Imputation</t>
+          <t>Practice Lesson: Imputation Strategies Comparison</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="I40" s="3" t="inlineStr">
         <is>
-          <t>You will choose appropriate imputation strategies for different types of cafe customer fields (numeric vs categorical) and implement them. Output: A script that fills missing ages with a numeric strategy and missing categories (like “membership_tier”) with a categorical strategy, then prints before/after comparisons.</t>
+          <t>Compare the effects of different simple imputation methods on numeric and categorical features. Output: A small before/after table (or code output) showing at least two imputation strategies applied to the same columns with a short note on tradeoffs.</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="G41" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Encoding Categories in a Movie Dataset</t>
+          <t>Practice Lesson: Encoding Cafe Menu Categories</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="I41" s="3" t="inlineStr">
         <is>
-          <t>You will identify categorical features in a movie dataset and apply one-hot encoding to make them numeric. Output: A script that selects categorical columns, applies one-hot encoding, and prints the transformed feature matrix shape and sample rows.</t>
+          <t>Practice identifying categorical vs numeric features and apply basic encoding strategies to turn categories into numbers. Output: A transformed version of a small cafe menu/order dataset where categorical columns are encoded (e.g., one-hot or label encoding) and documented.</t>
         </is>
       </c>
     </row>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="G42" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Encoding Categories in a Shopping Cart</t>
+          <t>Practice Lesson: Encoding Customer Segments</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="I42" s="3" t="inlineStr">
         <is>
-          <t>You will transform product categories and payment types into numeric encodings suitable for ML models. Output: A script that encodes these categorical fields and prints the mapping or resulting encoded columns for inspection.</t>
+          <t>Reinforce encoding concepts by designing an encoding plan for multiple categorical fields with different cardinalities. Output: A written encoding plan plus example encoded table rows showing how each categorical feature will be represented numerically.</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="G43" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Scaling Features for a Fitness App</t>
+          <t>Practice Lesson: Feature Scaling for Fitness Data</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="I43" s="3" t="inlineStr">
         <is>
-          <t>You will apply feature scaling (e.g., standardization or min-max scaling) to numeric fitness metrics and compare before/after ranges. Output: A script that scales features like steps, heart rate, and workout duration, then prints descriptive statistics before and after scaling.</t>
+          <t>Apply basic scaling techniques (e.g., standardization or min-max) to numeric fitness-tracking features and inspect the results. Output: A before/after comparison of numeric columns showing scaled values and confirmation that scales are now comparable.</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="G44" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Scaling and Encoding Pipeline for Taxi Fares</t>
+          <t>Practice Lesson: Scale Sensitivity Exploration</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="I44" s="3" t="inlineStr">
         <is>
-          <t>You will build a preprocessing pipeline that handles missing values, encodes categories, and scales numeric features for a taxi fare prediction task. Output: A script that constructs and fits a scikit-learn ColumnTransformer or Pipeline and outputs the transformed feature array shape and a few sample transformed rows.</t>
+          <t>Build intuition about which models are sensitive to feature scale and why scaling can change model behavior. Output: A short matrix or notes mapping several model types (e.g., k-NN, linear regression, tree-based models) to whether they are scale-sensitive with brief reasoning.</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Supervised to Unsupervised ML: In this unit, students will build, evaluate, and compare linear and tree-based supervised models (for classification and regression), practice cross-validation and hyperparameter tuning to control overfitting and improve generalization, and apply core unsupervised techniques like K-Means clustering and PCA to explore and segment unlabeled data.</t>
+          <t>Supervised &amp; Unsupervised Models: In this unit, you will train and evaluate linear, tree-based, and ensemble models for classification and regression, practice cross-validation and hyperparameter tuning, and explore unsupervised techniques like clustering and PCA to interpret structure in data.</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
@@ -1627,12 +1627,12 @@
       </c>
       <c r="D49" s="3" t="inlineStr">
         <is>
-          <t>Learn how to build and evaluate basic supervised learning models for both classification and regression. Understand when and how to use key metrics (accuracy, precision, recall, F1, MAE, MSE/RMSE, R²) through practical, real-world case studies and hands-on coding exercises.</t>
+          <t>Learn how to build and evaluate basic supervised learning models for classification and regression, moving beyond accuracy to choose metrics that fit real-world problems.</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>Supervised Learning: Classification, Regression, and Metrics</t>
+          <t>Supervised Models in Action</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="I50" s="3" t="inlineStr">
         <is>
-          <t>Explain binary classification problems; Train a Logistic Regression model end-to-end; Explain predicted probabilities vs predicted classes; Explain why accuracy alone is not enough for model evaluation</t>
+          <t>Explain binary classification problems; Train a Logistic Regression model end-to-end; Introduce the idea of predicted probabilities vs. predicted classes; Motivate the need for model evaluation (why accuracy alone is not enough)</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="I51" s="3" t="inlineStr">
         <is>
-          <t>Calculate and interpret accuracy, precision, recall, and F1-score; Read and interpret a confusion matrix; Re-evaluate a Logistic Regression model using different metrics; Explain how metric choice depends on the problem context</t>
+          <t>Calculate and interpret accuracy, precision, recall, and F1-score; Read and interpret a confusion matrix; Re-evaluate the Logistic Regression model using different metrics; Discuss how metric choice depends on the problem context</t>
         </is>
       </c>
     </row>
@@ -1718,7 +1718,7 @@
       </c>
       <c r="I52" s="3" t="inlineStr">
         <is>
-          <t>Explain numeric prediction tasks; Train a Linear Regression model; Interpret predictions vs actual values; Explain regression error intuitively as distance from the true value</t>
+          <t>Explain numeric prediction tasks; Train a Linear Regression model; Interpret predictions vs. actual values; Introduce regression error intuitively (distance from the true value)</t>
         </is>
       </c>
     </row>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="G54" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Email spam filter</t>
+          <t>Practice Lesson: Spam email classifier</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
@@ -1762,7 +1762,7 @@
       </c>
       <c r="I54" s="3" t="inlineStr">
         <is>
-          <t>Train and evaluate a Logistic Regression model for binary classification on an email spam vs. ham dataset, interpreting predicted probabilities and predicted classes. Output: A script that loads email features, trains a logistic regression spam filter, prints predicted probabilities and classes for new emails.</t>
+          <t>You will train a Logistic Regression model to classify short email snippets as spam or not spam and compare predicted probabilities vs. predicted classes. Output: A script that loads a small text dataset, trains a binary Logistic Regression classifier, and prints predicted class and probability for a few sample emails.</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="G55" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Medical test classifier metrics</t>
+          <t>Practice Lesson: Medical test confusion matrix</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="I55" s="3" t="inlineStr">
         <is>
-          <t>Use a confusion matrix to calculate and interpret accuracy, precision, recall, and F1-score for a medical test classifier, and discuss which metric matters most in this context. Output: A script that takes model predictions and true labels, prints a confusion matrix and computed metrics, and highlights which metric to prioritize.</t>
+          <t>You will compute and interpret accuracy, precision, recall, F1-score, and a confusion matrix for a medical test classifier, and discuss why accuracy alone can be misleading. Output: A script that trains a binary classifier, prints the confusion matrix and multiple metrics, and highlights metric values in a short textual summary.</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="G56" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: House price regression</t>
+          <t>Practice Lesson: Loan approval metric explorer</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="I56" s="3" t="inlineStr">
         <is>
-          <t>Train a Linear Regression model to predict house prices from features and interpret prediction errors as distances from the true values. Output: A script that fits a linear regression model, prints sample predictions vs actual prices, and shows residuals for each example.</t>
+          <t>You will simulate different classification thresholds for a loan approval Logistic Regression model and observe how precision, recall, and F1-score change with the threshold. Output: A script that sweeps over several probability thresholds, computes metrics at each, and prints or plots how precision/recall/F1 vary.</t>
         </is>
       </c>
     </row>
@@ -1818,7 +1818,7 @@
       </c>
       <c r="G57" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Cafe revenue forecast metrics</t>
+          <t>Practice Lesson: Apartment price regression</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="I57" s="3" t="inlineStr">
         <is>
-          <t>Compute MAE, MSE/RMSE, and R² for a cafe’s daily revenue prediction model and compare how each metric reflects model performance. Output: A script that takes true and predicted revenues, calculates MAE, MSE, RMSE, and R², and prints a short comparison summary.</t>
+          <t>You will train a Linear Regression model to predict apartment prices from features like size and number of rooms, and compare predictions to actual prices. Output: A script that fits a Linear Regression model, prints sample predictions vs. true prices, and calculates simple prediction errors.</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="G58" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Model selection for loan approval</t>
+          <t>Practice Lesson: Regression metric comparison</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="I58" s="3" t="inlineStr">
         <is>
-          <t>Compare a Logistic Regression classifier and a Linear Regression-based threshold model for loan approval, using both classification and regression metrics to decide which is more appropriate. Output: A script that trains both models, evaluates them with relevant metrics, and prints a simple recommendation of which model to use and why.</t>
+          <t>You will compute MAE, MSE, RMSE, and R² for one or two regression models and interpret what each metric reveals about prediction errors. Output: A script that trains at least one regression model, computes all four metrics, and prints a concise comparison table of their values.</t>
         </is>
       </c>
     </row>
@@ -1884,12 +1884,12 @@
       </c>
       <c r="D60" s="3" t="inlineStr">
         <is>
-          <t>Learn how to build and interpret tree-based models and ensembles, compare them to linear models, and understand key concepts in overfitting, generalization, and validation. Gain practical experience diagnosing model complexity issues and applying cross-validation to obtain reliable performance estimates.</t>
+          <t>Learn how tree-based models and ensembles work in practice, how they compare to linear models, and how to detect and reduce overfitting using validation and cross-validation.</t>
         </is>
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>Tree-Based Models, Ensembles, and Model Validation</t>
+          <t>Tree Models, Ensembles, and Overfitting</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="I61" s="3" t="inlineStr">
         <is>
-          <t>Explain decision trees at a conceptual level; Train a tree-based classifier; Compare linear vs non-linear models; Discuss strengths and limitations of tree-based approaches</t>
+          <t>Explain decision trees at a conceptual level; Train a tree-based classifier; Compare linear vs. non-linear models; Discuss strengths and limitations of tree-based approaches</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="I62" s="3" t="inlineStr">
         <is>
-          <t>Explain ensemble methods such as Random Forest and Gradient Boosting at a high level; Explain why ensembles are commonly used in practice; Build intuition for why combining models often improves performance</t>
+          <t>Introduce ensemble methods (Random Forest, Gradient Boosting) at a high level; Explain why ensembles are commonly used in practice; Build intuition for why combining models often improves performance</t>
         </is>
       </c>
     </row>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="I63" s="3" t="inlineStr">
         <is>
-          <t>Identify signs of overfitting and underfitting; Compare train vs test performance; Explain the bias-variance tradeoff; Explain cross-validation conceptually; Compare a single train/test split vs multiple folds</t>
+          <t>Identify signs of overfitting and underfitting; Compare train vs. test performance; Explain the bias-variance tradeoff; Introduce cross-validation conceptually; Compare single train/test split vs. multiple folds</t>
         </is>
       </c>
     </row>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="G64" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Loan decision tree</t>
+          <t>Practice Lesson: Movie review decision tree</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -1997,7 +1997,7 @@
       </c>
       <c r="I64" s="3" t="inlineStr">
         <is>
-          <t>Train and interpret a decision tree classifier for loan approvals, comparing its behavior and decision boundaries conceptually to Logistic Regression. Output: A script that trains a decision tree, prints its depth and feature importances, and shows example decisions for new applicants.</t>
+          <t>You will train a decision tree classifier to predict whether a movie review is positive or negative and visualize or inspect the learned splits. Output: A script that fits a decision tree on a text or numeric dataset and prints the tree structure or feature importances with example predictions.</t>
         </is>
       </c>
     </row>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="G65" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Customer churn random forest</t>
+          <t>Practice Lesson: Linear vs tree model showdown</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="I65" s="3" t="inlineStr">
         <is>
-          <t>Build a Random Forest classifier for customer churn and discuss why an ensemble of trees can outperform a single tree. Output: A script that trains a random forest, reports accuracy and feature importances, and predicts churn probabilities for sample customers.</t>
+          <t>You will compare a Logistic Regression model and a decision tree classifier on the same classification dataset and analyze their performance differences. Output: A script that trains both models, evaluates them with at least accuracy and F1-score, and prints a side-by-side metric comparison.</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="G66" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Gradient boosting credit risk</t>
+          <t>Practice Lesson: Random forest credit risk</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I66" s="3" t="inlineStr">
         <is>
-          <t>Train a gradient boosting classifier on a simplified credit risk dataset and compare its performance and behavior to a single decision tree. Output: A script that fits a gradient boosting model, evaluates it on a test set, and prints side-by-side metrics versus a baseline tree.</t>
+          <t>You will train a Random Forest classifier on a credit risk–style dataset and interpret basic feature importances and performance. Output: A script that fits a Random Forest, prints metrics and top feature importances, and shows a few example predictions.</t>
         </is>
       </c>
     </row>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="G67" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Movie rating overfitting check</t>
+          <t>Practice Lesson: Gradient boosting churn model</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="I67" s="3" t="inlineStr">
         <is>
-          <t>Diagnose overfitting and underfitting on a movie rating prediction task by comparing train vs test performance for models of different complexity. Output: A script that trains multiple models (e.g., shallow vs deep trees), prints train/test scores, and flags where overfitting occurs.</t>
+          <t>You will train a simple Gradient Boosting classifier (e.g., GradientBoostingClassifier or XGBoost/lightGBM if available) to predict customer churn and compare it to a single decision tree. Output: A script that trains both models, evaluates them on a test set, and prints which model performs better under chosen metrics.</t>
         </is>
       </c>
     </row>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="G68" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Cross-validation comparison</t>
+          <t>Practice Lesson: Overfitting detector</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="I68" s="3" t="inlineStr">
         <is>
-          <t>Conceptually and programmatically compare a single train/test split to k-fold cross-validation on a classification problem to understand variance in performance estimates. Output: A script that runs both a single split and k-fold cross-validation, printing all scores and their average and standard deviation.</t>
+          <t>You will experiment with tree depth and other settings to create underfitting and overfitting scenarios and compare train vs. test performance. Output: A script that trains multiple decision trees with different max_depth values, prints train/test metrics, and highlights where overfitting begins.</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="G69" s="4" t="inlineStr">
         <is>
-          <t>Theory Practice Lesson: Overfitting and validation quiz</t>
+          <t>Practice Lesson: Cross-validation sampler</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="I69" s="3" t="inlineStr">
         <is>
-          <t>Reinforce understanding of overfitting, generalization, bias-variance tradeoff, and cross-validation through a written quiz and scenario-based questions (no coding). Output: A completed quiz document where model behaviors are identified as overfitting/underfitting, and appropriate validation strategies are matched to scenarios.</t>
+          <t>You will implement a simple cross-validation workflow with a tree-based model and compare the stability of CV scores to a single train/test split. Output: A script that runs both a single train/test evaluation and k-fold cross-validation, then prints the mean and standard deviation of CV scores vs. the single-split score.</t>
         </is>
       </c>
     </row>
@@ -2141,12 +2141,12 @@
       </c>
       <c r="D71" s="3" t="inlineStr">
         <is>
-          <t>Learn to reliably evaluate models with cross-validation, responsibly tune hyperparameters using grid and randomized search, and distinguish hyperparameters from learned parameters. Gain a conceptual understanding of unsupervised learning, its goals, and when to apply common unsupervised techniques in real-world scenarios.</t>
+          <t>Learn how to evaluate models reliably with cross-validation, distinguish hyperparameters from learned parameters, and tune models using grid and randomized search. Understand when and why to use unsupervised learning, and practice framing real-world problems as supervised or unsupervised tasks.</t>
         </is>
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>Model Evaluation, Tuning, and Unsupervised Learning</t>
+          <t>Model Validation and Tuning</t>
         </is>
       </c>
       <c r="F71" s="2" t="inlineStr">
@@ -2188,7 +2188,7 @@
       </c>
       <c r="I72" s="3" t="inlineStr">
         <is>
-          <t>Explain cross-validation conceptually; Use cross-validation to estimate performance; Compare a single split vs multiple folds</t>
+          <t>Explain cross-validation conceptually; Use cross-validation to estimate performance; Compare single split vs multiple folds</t>
         </is>
       </c>
     </row>
@@ -2232,7 +2232,7 @@
       </c>
       <c r="I74" s="3" t="inlineStr">
         <is>
-          <t>Explain how unsupervised learning differs from supervised learning; Identify use cases without labels; Describe exploratory ML goals</t>
+          <t>Explain how unsupervised learning differs from supervised; Identify use cases without labels; Describe exploratory ML goals</t>
         </is>
       </c>
     </row>
@@ -2244,7 +2244,7 @@
       </c>
       <c r="G75" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Cross-validation for house prices</t>
+          <t>Practice Lesson: Cross-validation score explorer</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="I75" s="3" t="inlineStr">
         <is>
-          <t>Use k-fold cross-validation to estimate the performance of a house price regression model and compare the stability of scores across folds. Output: A script that runs k-fold cross-validation on a regression model and prints fold-wise scores and their mean and variance.</t>
+          <t>You will apply k-fold cross-validation to a supervised model and compare performance estimates for different numbers of folds. Output: A script that runs cross-validation with several k values (e.g., 3, 5, 10) and prints the mean and variance of scores for each.</t>
         </is>
       </c>
     </row>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="G76" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Fold comparison for spam classifier</t>
+          <t>Practice Lesson: Grid search hyperparameter tuner</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="I76" s="3" t="inlineStr">
         <is>
-          <t>Compare a single train/test split to multiple-fold cross-validation for a spam classifier and interpret why the cross-validated estimate may be more reliable. Output: A script that computes accuracy for a single split and for k-fold CV, printing and comparing the results.</t>
+          <t>You will use GridSearchCV to tune key hyperparameters of a classifier and interpret the best parameters and scores. Output: A script that defines a small parameter grid, runs GridSearchCV, and prints the best parameter set along with cross-validated performance.</t>
         </is>
       </c>
     </row>
@@ -2288,7 +2288,7 @@
       </c>
       <c r="G77" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Grid search for tree depth</t>
+          <t>Practice Lesson: Randomized search speed test</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="I77" s="3" t="inlineStr">
         <is>
-          <t>Use GridSearchCV to tune a decision tree classifier’s key hyperparameters (e.g., max_depth, min_samples_split) and interpret the best parameters and score. Output: A script that runs grid search, prints the best hyperparameters, best score, and a brief table of results.</t>
+          <t>You will use RandomizedSearchCV to explore a wider hyperparameter space and compare its runtime and results to a grid search. Output: A script that runs both GridSearchCV and RandomizedSearchCV with limited settings, then prints timing and best scores for each.</t>
         </is>
       </c>
     </row>
@@ -2310,7 +2310,7 @@
       </c>
       <c r="G78" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Randomized search for forest</t>
+          <t>Practice Lesson: Hyperparameter report generator</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="I78" s="3" t="inlineStr">
         <is>
-          <t>Apply RandomizedSearchCV to tune a Random Forest classifier and understand tradeoffs between search breadth, runtime, and performance. Output: A script that performs randomized search over a parameter distribution, prints the best configuration, and compares it to a default model.</t>
+          <t>You will extract and summarize cross-validation results from a search object into a simple, interpretable ranking of hyperparameter combinations. Output: A script that reads cv_results_ from a search, creates a sorted table of parameter sets with mean and std scores, and prints the top candidates.</t>
         </is>
       </c>
     </row>
@@ -2332,7 +2332,7 @@
       </c>
       <c r="G79" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Hyperparameter vs parameter identification</t>
+          <t>Theory Practice Lesson: Supervised vs unsupervised scenarios</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr">
@@ -2342,7 +2342,7 @@
       </c>
       <c r="I79" s="3" t="inlineStr">
         <is>
-          <t>Distinguish hyperparameters from learned parameters by inspecting model attributes and documenting which values are set before training vs learned from data. Output: A script that trains a model, prints selected hyperparameters and learned coefficients, and writes a short textual summary.</t>
+          <t>You will classify example problem descriptions as supervised or unsupervised learning tasks and explain why labels are or are not required. Output: A short quiz-style exercise (e.g., text prompts and your written answers) that matches scenarios to supervised/unsupervised categories with brief justifications.</t>
         </is>
       </c>
     </row>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="G80" s="4" t="inlineStr">
         <is>
-          <t>Theory Practice Lesson: Unsupervised learning scenarios</t>
+          <t>Practice Lesson: Customer segmentation clustering idea board</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="I80" s="3" t="inlineStr">
         <is>
-          <t>Identify real-world problems that are suitable for unsupervised learning and match them to appropriate unsupervised techniques conceptually. Output: A written exercise where scenarios (e.g., customer segmentation, anomaly detection) are matched to unsupervised methods and labeled vs unlabeled contexts are explained.</t>
+          <t>You will brainstorm and outline an unsupervised learning project for customer segmentation, identifying available features, goals, and evaluation ideas. Output: A written project sketch describing dataset features, why labels are absent, what patterns you hope to discover, and how you might judge usefulness.</t>
         </is>
       </c>
     </row>
@@ -2398,12 +2398,12 @@
       </c>
       <c r="D82" s="3" t="inlineStr">
         <is>
-          <t>Learn how to segment data using K-Means, choose and evaluate the number of clusters, and interpret clustering tradeoffs. Practice applying PCA for visualization and combining it with clustering to explore and explain high-dimensional datasets.</t>
+          <t>Learn how to group data with K-Means, choose and evaluate the number of clusters, and use PCA to reduce dimensionality for visualization. Practice these skills through hands-on scripts that cluster customers and image colors, compare k values with elbow and silhouette methods, and combine PCA with clustering on real datasets.</t>
         </is>
       </c>
       <c r="E82" s="4" t="inlineStr">
         <is>
-          <t>Clustering and Dimensionality Reduction</t>
+          <t>Clustering and PCA in Action</t>
         </is>
       </c>
       <c r="F82" s="2" t="inlineStr">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="I84" s="3" t="inlineStr">
         <is>
-          <t>Explain the role of k in clustering; Use simple heuristics to choose cluster count; Interpret clustering tradeoffs</t>
+          <t>Explain the role of k; Use simple heuristics to choose cluster count; Interpret clustering tradeoffs</t>
         </is>
       </c>
     </row>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="G86" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Customer segmentation with K-Means</t>
+          <t>Practice Lesson: K-means cafe customers</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -2511,7 +2511,7 @@
       </c>
       <c r="I86" s="3" t="inlineStr">
         <is>
-          <t>Train a K-Means clustering model to segment customers based on purchase behavior and interpret the resulting clusters at a high level. Output: A script that runs K-Means, prints cluster centers, and assigns each customer to a segment.</t>
+          <t>You will apply K-Means clustering to fictional cafe customer data (e.g., visit frequency and spending) and interpret the resulting customer groups. Output: A script that runs K-Means with a chosen k, assigns cluster labels to customers, and prints basic cluster summaries (centroids and counts).</t>
         </is>
       </c>
     </row>
@@ -2523,7 +2523,7 @@
       </c>
       <c r="G87" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Music listener clustering</t>
+          <t>Practice Lesson: K-means image color palette</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -2533,7 +2533,7 @@
       </c>
       <c r="I87" s="3" t="inlineStr">
         <is>
-          <t>Apply K-Means to group music app users by listening patterns and summarize how each cluster’s behavior differs. Output: A script that clusters users, prints cluster sizes and average feature values per cluster, and labels clusters with simple descriptive names.</t>
+          <t>You will use K-Means to cluster the colors in an image and create a reduced color palette. Output: A script that loads an image, applies K-Means to its pixel colors, and prints or displays the cluster centroids as the dominant colors.</t>
         </is>
       </c>
     </row>
@@ -2545,7 +2545,7 @@
       </c>
       <c r="G88" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Choosing k for cafe visitors</t>
+          <t>Practice Lesson: Elbow method cluster chooser</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="I88" s="3" t="inlineStr">
         <is>
-          <t>Use heuristics such as the elbow method and simple silhouette inspection to choose the number of clusters (k) for cafe visitor data. Output: A script that trains K-Means for multiple k values, plots or prints inertia/silhouette scores, and suggests a reasonable k.</t>
+          <t>You will implement the elbow method to explore how inertia changes with different k values and visually choose a reasonable number of clusters. Output: A script that runs K-Means for several k values, records inertia, and produces a simple elbow plot or printed table for inspection.</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="G89" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: Cluster tradeoff exploration</t>
+          <t>Practice Lesson: Silhouette score explorer</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="I89" s="3" t="inlineStr">
         <is>
-          <t>Explore the tradeoff between too few and too many clusters by comparing cluster compactness and interpretability across different k values. Output: A script that fits K-Means with several k values and prints metrics and brief textual interpretations for each.</t>
+          <t>You will compute silhouette scores for different numbers of clusters and interpret which k yields better-separated clusters. Output: A script that fits K-Means for multiple k, computes silhouette scores, and prints a comparison table or simple plot.</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="G90" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: PCA visualization of digits</t>
+          <t>Practice Lesson: PCA digits visualization</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="I90" s="3" t="inlineStr">
         <is>
-          <t>Apply PCA to reduce a high-dimensional dataset (e.g., handwritten digits) to 2D and visualize the data points colored by label. Output: A script that performs PCA, generates 2D coordinates, and produces a scatter plot showing how classes are separated.</t>
+          <t>You will apply PCA to a high-dimensional dataset (e.g., handwritten digits) to reduce it to 2D and visualize the data points colored by class labels. Output: A script that runs PCA to 2 components and generates a 2D scatter plot of the transformed points with colors indicating true classes.</t>
         </is>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="G91" s="4" t="inlineStr">
         <is>
-          <t>Practice Lesson: PCA and clustering combination</t>
+          <t>Practice Lesson: PCA plus clustering combo</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
@@ -2621,7 +2621,7 @@
       </c>
       <c r="I91" s="3" t="inlineStr">
         <is>
-          <t>Combine PCA for dimensionality reduction with K-Means clustering to visualize and interpret clusters in a 2D space. Output: A script that runs PCA, applies K-Means on the reduced data, and plots the clusters in 2D with different colors for each cluster.</t>
+          <t>You will combine PCA for dimensionality reduction with K-Means clustering and compare cluster structure in the reduced 2D space. Output: A script that applies PCA to reduce features, runs K-Means on the reduced data, and plots the 2D PCA representation with points colored by cluster label.</t>
         </is>
       </c>
     </row>
